--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900477.836650866</v>
+        <v>2893460.821759156</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>186.815174149556</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>143.7391060166177</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>161.4185109538487</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>113.2870337730224</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>325.7589291784201</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>299.9779908452711</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>126.0887386816669</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>129.1935566495328</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>205.8631933462042</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>99.44420492154089</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>174.9442930587127</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>95.81278504222348</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>158.7552180937207</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.28747238246468</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>137.1262478116102</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.5850661078435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>130.4839076338543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>266.4394827299844</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>276.6262695304729</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>45.88884117515066</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3681,7 +3681,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>89.07224759472247</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>191.6011714187281</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>127.5190385625207</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>90.75180619639598</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>34.94676868416079</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.097842756629</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.5384547146241</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C4" t="n">
-        <v>409.5384547146241</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="D4" t="n">
-        <v>409.5384547146241</v>
+        <v>168.3743290658416</v>
       </c>
       <c r="E4" t="n">
-        <v>409.5384547146241</v>
+        <v>168.3743290658416</v>
       </c>
       <c r="F4" t="n">
-        <v>262.6485072167137</v>
+        <v>168.3743290658416</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>168.3743290658416</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>168.3743290658416</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146241</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146241</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4606,13 +4606,13 @@
         <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4658,31 +4658,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>609.3508327416162</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>609.3508327416162</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>609.3508327416162</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>609.3508327416162</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>602.4053319924127</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>184.4415238905996</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>184.4415238905996</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2489.206471476602</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2489.206471476602</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2489.206471476602</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>2136.437816206488</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1762.972057945408</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1762.972057945408</v>
+        <v>995.9506728057379</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005474</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C10" t="n">
-        <v>304.5083130726405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>154.3916736603047</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>154.3916736603047</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005474</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="11">
@@ -5020,40 +5020,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,28 +5062,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5126,19 +5126,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.109187020113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>362.1730040922062</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>362.1730040922062</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>362.1730040922062</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>362.1730040922062</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>193.9976824120268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5232,19 +5232,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>531.109187020113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.109187020113</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5266,22 +5266,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,16 +5345,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5375,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1338.557464402629</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1083.872976196742</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1083.872976196742</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,40 +5737,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500522</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,13 +5974,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>684.3745488722935</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>515.4383659443866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>515.4383659443866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913841</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1133.156678913841</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>905.1671280158237</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>684.3745488722935</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646855</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M27" t="n">
         <v>1188.130761344647</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3886.516115720546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3717.579932792639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3717.579932792639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3717.579932792639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.149147719352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.149147719352</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4437.149147719352</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4437.149147719352</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4209.159596821335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4068.164580550786</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>878.0656947841297</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>878.0656947841297</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X31" t="n">
-        <v>650.0761438861124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>223.1552313137088</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1006.00006471106</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1006.00006471106</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1006.00006471106</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>1006.00006471106</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>1006.00006471106</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,7 +6952,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3757.486495951125</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.486495951125</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D37" t="n">
-        <v>3757.486495951125</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368731</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017357</v>
+        <v>908.5006827620753</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.25603081147</v>
+        <v>908.5006827620753</v>
       </c>
       <c r="W37" t="n">
-        <v>3803.838860774509</v>
+        <v>908.5006827620753</v>
       </c>
       <c r="X37" t="n">
-        <v>3757.486495951125</v>
+        <v>908.5006827620753</v>
       </c>
       <c r="Y37" t="n">
-        <v>3757.486495951125</v>
+        <v>687.7081036185451</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.193690363625</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.7185717878253</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C40" t="n">
-        <v>505.7823888599185</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>505.7823888599185</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>505.7823888599185</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>505.7823888599185</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>337.607067179739</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>187.1890587276823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W40" t="n">
-        <v>674.7185717878253</v>
+        <v>994.3846202486859</v>
       </c>
       <c r="X40" t="n">
-        <v>674.7185717878253</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.7185717878253</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1035.248642250122</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1035.248642250122</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W43" t="n">
-        <v>745.8314722131613</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X43" t="n">
-        <v>745.8314722131613</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y43" t="n">
-        <v>745.8314722131613</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,34 +7642,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1352.541400772091</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1128.755985561596</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1128.755985561596</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>874.0714973557094</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>584.6543273187488</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119834</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>85.3000633212781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>53.10104332531265</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>127.4821343048567</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>33.38685156731853</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.5445077994726</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>9.307714834958944</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.99958724425125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>121.6537356899737</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>19.79786966859291</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>9.611082868104461</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>179.8208142138865</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>21.34699786954951</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>94.92182691786289</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>158.7183138360567</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>127.8328471556988</v>
       </c>
     </row>
     <row r="44">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>162.9740412994425</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803343</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>625646.4955803343</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803336</v>
       </c>
       <c r="I2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803343</v>
       </c>
       <c r="L2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
+        <v>174490.7773218262</v>
+      </c>
+      <c r="D4" t="n">
         <v>174490.7773218261</v>
-      </c>
-      <c r="D4" t="n">
-        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26438,10 +26438,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26472,31 +26472,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
-      </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083531</v>
+        <v>-190484.3187083534</v>
       </c>
       <c r="C6" t="n">
-        <v>399483.5605061909</v>
+        <v>399483.5605061912</v>
       </c>
       <c r="D6" t="n">
         <v>399483.560506191</v>
       </c>
       <c r="E6" t="n">
-        <v>-20804.41239758089</v>
+        <v>-21779.00365730263</v>
       </c>
       <c r="F6" t="n">
-        <v>504355.6240793156</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="G6" t="n">
-        <v>504355.6240793151</v>
+        <v>503381.0328195938</v>
       </c>
       <c r="H6" t="n">
-        <v>504355.6240793148</v>
+        <v>503381.0328195937</v>
       </c>
       <c r="I6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195934</v>
       </c>
       <c r="J6" t="n">
-        <v>327932.4048867219</v>
+        <v>326957.8136270007</v>
       </c>
       <c r="K6" t="n">
-        <v>504355.6240793155</v>
+        <v>503381.0328195937</v>
       </c>
       <c r="L6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195938</v>
       </c>
       <c r="M6" t="n">
-        <v>369554.6088454779</v>
+        <v>368580.0175857566</v>
       </c>
       <c r="N6" t="n">
-        <v>504355.6240793149</v>
+        <v>503381.0328195934</v>
       </c>
       <c r="O6" t="n">
-        <v>504355.6240793153</v>
+        <v>503381.0328195937</v>
       </c>
       <c r="P6" t="n">
-        <v>504355.624079315</v>
+        <v>503381.0328195936</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26755,16 +26755,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>226.968995871239</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>225.9919946618514</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>5.891291305202174</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>21.67858801931582</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>56.97491248506049</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>86.25994781078248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>86.05680026835205</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>22.7377595953285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>10.58512701145361</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>45.97684310139036</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>50.76536233032445</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,7 +35895,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36697,7 +36697,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>127.2102422761848</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2893460.821759156</v>
+        <v>2898400.084608186</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9047458.492055899</v>
+        <v>9047458.492055897</v>
       </c>
     </row>
     <row r="11">
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>186.815174149556</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>96.95377689311783</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.7589291784201</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>156.0582739785062</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>26.32882004050054</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>129.1935566495328</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>271.7612099808834</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>174.9442930587127</v>
+        <v>144.8086284801607</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>276.6262695304729</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>191.6011714187281</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.75180619639598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>34.94676868416079</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834948</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1878.345729894537</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1520.080031287786</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.291778689542</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>723.3058738999346</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1193.993290897005</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>783.0073861073972</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>365.0435780055841</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1920.918182229333</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416162</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>609.3508327416162</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>609.3508327416162</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>609.3508327416162</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>602.4053319924127</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>184.4415238905996</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>184.4415238905996</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2367.614128840753</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.09000478155</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057379</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>551.4175770764215</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.4175770764215</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,16 +5056,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5375,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5731,46 +5731,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5989,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6208,7 +6208,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,31 +6220,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6253,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6445,37 +6445,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6645,22 +6645,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>908.5006827620753</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>908.5006827620753</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>908.5006827620753</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>908.5006827620753</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>687.7081036185451</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.92115703528</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>994.3846202486859</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>766.3950693506686</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>696.5850465240057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>356.6647764207315</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C46" t="n">
-        <v>356.6647764207315</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D46" t="n">
-        <v>356.6647764207315</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1352.541400772091</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1128.755985561596</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1128.755985561596</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>874.0714973557094</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>584.6543273187488</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>356.6647764207315</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>356.6647764207315</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>85.30006332127836</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="29">
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>9.611082868104461</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>94.92182691786289</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>127.8328471556988</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>162.9740412994425</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="G2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803343</v>
       </c>
       <c r="I2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803343</v>
       </c>
       <c r="N2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803342</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218261</v>
@@ -26441,7 +26441,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26487,16 +26487,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083534</v>
+        <v>-190484.3187083535</v>
       </c>
       <c r="C6" t="n">
-        <v>399483.5605061912</v>
+        <v>399483.5605061909</v>
       </c>
       <c r="D6" t="n">
-        <v>399483.560506191</v>
+        <v>399483.5605061908</v>
       </c>
       <c r="E6" t="n">
-        <v>-21779.00365730263</v>
+        <v>-20901.87152355329</v>
       </c>
       <c r="F6" t="n">
-        <v>503381.0328195936</v>
+        <v>504258.1649533428</v>
       </c>
       <c r="G6" t="n">
-        <v>503381.0328195938</v>
+        <v>504258.164953343</v>
       </c>
       <c r="H6" t="n">
-        <v>503381.0328195937</v>
+        <v>504258.1649533433</v>
       </c>
       <c r="I6" t="n">
-        <v>503381.0328195934</v>
+        <v>504258.1649533428</v>
       </c>
       <c r="J6" t="n">
-        <v>326957.8136270007</v>
+        <v>327834.94576075</v>
       </c>
       <c r="K6" t="n">
-        <v>503381.0328195937</v>
+        <v>504258.164953343</v>
       </c>
       <c r="L6" t="n">
-        <v>503381.0328195938</v>
+        <v>504258.164953343</v>
       </c>
       <c r="M6" t="n">
-        <v>368580.0175857566</v>
+        <v>369457.1497195059</v>
       </c>
       <c r="N6" t="n">
-        <v>503381.0328195934</v>
+        <v>504258.164953343</v>
       </c>
       <c r="O6" t="n">
-        <v>503381.0328195937</v>
+        <v>504258.164953343</v>
       </c>
       <c r="P6" t="n">
-        <v>503381.0328195936</v>
+        <v>504258.164953343</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26755,16 +26755,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>226.968995871239</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>154.2703906151715</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.97491248506049</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>167.864498785851</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>192.2558333115942</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>22.7377595953285</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>55.99104848925151</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>50.76536233032445</v>
+        <v>80.90102690887642</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3926104730631</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37794,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
